--- a/data/trans_camb/P24_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P24_3_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>15,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>19,21</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,32</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,35</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6,78</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>17,66</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 7,19</t>
+          <t>-0,12; 13,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 9,14</t>
+          <t>-0,03; 11,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 8,55</t>
+          <t>-1,06; 9,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,32; 14,03</t>
+          <t>6,29; 24,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 6,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 5,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 8,91</t>
+          <t>-1,96; 11,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 10,97</t>
+          <t>-0,96; 9,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 5,4</t>
+          <t>2,21; 13,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 6,26</t>
+          <t>11,15; 30,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 10,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 10,35</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 9,1</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 10,06</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>11,68; 24,92</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>171,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>147,64%</t>
+          <t>153,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>142,97%</t>
+          <t>123,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>272,13%</t>
+          <t>397,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>70,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>58,66%</t>
+          <t>81,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>139,66%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>319,48%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>64,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>104,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>106,51%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>107,2%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>135,88%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>353,64%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 304,24</t>
+          <t>-22,59; 1093,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,73; 453,61</t>
+          <t>-12,62; 1023,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,46; 402,57</t>
+          <t>-22,75; 786,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,99; 718,5</t>
+          <t>61,83; 2029,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,85; 81,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 76,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 116,44</t>
+          <t>-31,58; 396,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 141,99</t>
+          <t>-16,07; 303,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 94,78</t>
+          <t>11,92; 402,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 118,66</t>
+          <t>98,49; 950,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,51; 146,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>44,97; 195,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 352,01</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6,8; 312,59</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>31,04; 364,13</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>133,91; 882,62</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,59</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,22</t>
+          <t>-4,44; 2,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 4,4</t>
+          <t>-2,95; 4,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,13</t>
+          <t>-3,56; 2,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,51</t>
+          <t>-1,25; 6,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 4,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 2,17</t>
+          <t>0,58; 9,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 5,25</t>
+          <t>0,55; 7,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,09</t>
+          <t>-1,08; 5,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,76</t>
+          <t>2,58; 9,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 4,98</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,09; 4,54</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 3,49</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 7,31</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>-15,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>62,62%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>47,53%</t>
+          <t>63,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-8,83%</t>
+          <t>100,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>41,07%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>149,13%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>43,71%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>57,36%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>21,36%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>106,47%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 132,55</t>
+          <t>-67,86; 115,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 176,15</t>
+          <t>-43,07; 177,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 124,92</t>
+          <t>-53,46; 124,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 173,13</t>
+          <t>-24,91; 239,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 93,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 94,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,42; 41,12</t>
+          <t>0,91; 319,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 108,6</t>
+          <t>7,73; 271,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 74,61</t>
+          <t>-23,42; 204,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 94,07</t>
+          <t>33,77; 358,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 42,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 87,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-19,44; 155,41</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 147,94</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-22,73; 114,05</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>30,48; 239,54</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>2,97</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,95</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
           <t>2,91</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>4,76</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 6,12</t>
+          <t>0,87; 11,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 3,4</t>
+          <t>-0,04; 5,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 4,55</t>
+          <t>0,01; 5,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 4,2</t>
+          <t>-0,03; 7,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,21</t>
+          <t>-1,13; 3,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 6,35</t>
+          <t>0,5; 5,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 2,94</t>
+          <t>-0,54; 3,55</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,67</t>
+          <t>2,62; 10,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 6,06</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 4,91</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 4,01</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2,45; 7,47</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>48,38%</t>
+          <t>226,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>139,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>52,01%</t>
+          <t>158,1%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>170,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-9,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>73,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>198,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>112,21%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>396,8%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>55,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>158,94%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>166,8%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>139,45%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>272,74%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,39; 311,91</t>
+          <t>-11,57; 1587,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,75; 225,66</t>
+          <t>-15,73; 894,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,04; 266,09</t>
+          <t>-12,45; 1060,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-74,79; 213,22</t>
+          <t>-20,77; 949,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,1; 107,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,6; 170,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-50,76; 109,45</t>
+          <t>-54,51; 678,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 283,93</t>
+          <t>-0,54; 1276,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-44,59; 131,79</t>
+          <t>-30,37; 736,25</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-34,8; 116,05</t>
+          <t>44,5; 1990,77</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-39,82; 112,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 182,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 646,15</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>21,39; 523,24</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>11,57; 433,92</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>75,56; 781,17</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>4,28</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,42</t>
+          <t>-1,93; 2,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,94</t>
+          <t>-1,16; 4,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,57</t>
+          <t>2,56; 9,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,87</t>
+          <t>-3,41; 2,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,55</t>
+          <t>-2,75; 4,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,13</t>
+          <t>-1,52; 7,09</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 1,89</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 3,18</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 7,63</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>69,27%</t>
+          <t>40,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>60,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>106,99%</t>
+          <t>180,12%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>-9,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>67,06%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>80,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-1,3%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>15,38%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>75,98%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 123,13</t>
+          <t>-42,67; 118,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,06; 144,06</t>
+          <t>-30,62; 189,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,16; 135,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>27,91; 203,11</t>
+          <t>33,5; 380,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 47,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 61,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 53,85</t>
+          <t>-38,62; 34,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,95; 123,78</t>
+          <t>-32,44; 64,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 55,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13,38; 76,77</t>
+          <t>-18,42; 100,72</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,45; 63,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>42,13; 129,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-29,7; 38,99</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-20,71; 64,34</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>24,79; 145,4</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5,61</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6,23</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>5,93</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 3,5</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 3,9</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 3,65</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 7,73</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 2,95</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 3,42</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 3,03</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3,78; 8,75</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,03; 2,65</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 3,22</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 2,9</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>4,26; 7,76</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>49,04%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>68,78%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>62,87%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>163,08%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>26,82%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>18,39%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>102,42%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>41,53%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>33,99%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>123,78%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-9,35; 126,89</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>6,17; 145,44</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>5,94; 137,27</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>76,81; 287,98</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-13,44; 55,79</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 64,69</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-9,68; 59,15</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>56,18; 166,14</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 60,74</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>12,75; 76,64</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>7,22; 66,66</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>77,36; 178,33</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
